--- a/medicine/Enfance/Mercer_Mayer/Mercer_Mayer.xlsx
+++ b/medicine/Enfance/Mercer_Mayer/Mercer_Mayer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercer Mayer (né le 30 décembre 1943 à Little Rock dans l'Arkansas) est un auteur pour la jeunesse et illustrateur américain, qui a publié plus de 300 ouvrages. Il est surtout populaire pour les séries des Little Critter et Little Monster.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1968 est publié son album jeunesse There's a nightmare in my closet, traduit en français sous le titre Il y a un cauchemar dans mon placard, devenu « classique américain[1] ». Lors de la réédition du titre en 2024, Télérama écrit : « L’effrayant animal personnifie LE cauchemar dont tout petit dormeur appréhende la venue. Tapi dans le placard, il est prêt à surgir sitôt que sa future proie se sera glissée sous les draps. [...] le plus admirable tour de force de l’illustrateur reste la dégaine qu’il a donnée à son personnage. Un pyjama de nourrisson, une tête de monsieur sérieux, c’est l’être global, enfant parfait, adulte tout autant. Sans âge, éternel, comme cet album[1] ».
-L'album fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[2] en 2024, ainsi que l'album Un ours à ma fenêtre ![2] qu'il a illustré, sur un texte de Liesel Moak Skorpen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1968 est publié son album jeunesse There's a nightmare in my closet, traduit en français sous le titre Il y a un cauchemar dans mon placard, devenu « classique américain ». Lors de la réédition du titre en 2024, Télérama écrit : « L’effrayant animal personnifie LE cauchemar dont tout petit dormeur appréhende la venue. Tapi dans le placard, il est prêt à surgir sitôt que sa future proie se sera glissée sous les draps. [...] le plus admirable tour de force de l’illustrateur reste la dégaine qu’il a donnée à son personnage. Un pyjama de nourrisson, une tête de monsieur sérieux, c’est l’être global, enfant parfait, adulte tout autant. Sans âge, éternel, comme cet album ».
+L'album fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024, ainsi que l'album Un ours à ma fenêtre ! qu'il a illustré, sur un texte de Liesel Moak Skorpen.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Mercer Mayer bibliography
 There's a nightmare in my closet, 1968
-Il y a un cauchemar dans mon placard[1], éd. Delarge, 1980, et rééd., dont Gallimard, 2024
+Il y a un cauchemar dans mon placard, éd. Delarge, 1980, et rééd., dont Gallimard, 2024
 Outside my window, texte de Liesel Moak Skorpen, 1968
 Un ours à ma fenêtre !, éd. Circonflexe, 2005</t>
         </is>
